--- a/2022/Samsung/MARCH/13.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/13.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -192,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="190">
   <si>
     <t>Date</t>
   </si>
@@ -768,10 +768,10 @@
     </r>
   </si>
   <si>
-    <t>Date:12.03.2022</t>
+    <t>13.03.2022</t>
   </si>
   <si>
-    <t>13.03.2022</t>
+    <t>Date:13.03.2022</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2082,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="375">
+  <cellXfs count="374">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3027,9 +3027,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="45" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3625,33 +3622,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="335"/>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
+      <c r="A1" s="334"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="336"/>
-      <c r="B2" s="333" t="s">
+      <c r="A2" s="335"/>
+      <c r="B2" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="336"/>
-      <c r="B3" s="334" t="s">
+      <c r="A3" s="335"/>
+      <c r="B3" s="333" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="336"/>
+      <c r="A4" s="335"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3669,7 +3666,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="336"/>
+      <c r="A5" s="335"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3687,7 +3684,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="336"/>
+      <c r="A6" s="335"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3699,7 +3696,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="336"/>
+      <c r="A7" s="335"/>
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
@@ -3718,7 +3715,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="336"/>
+      <c r="A8" s="335"/>
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -3737,7 +3734,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="336"/>
+      <c r="A9" s="335"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -3756,7 +3753,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="336"/>
+      <c r="A10" s="335"/>
       <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
@@ -3775,7 +3772,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="336"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
@@ -3794,7 +3791,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="336"/>
+      <c r="A12" s="335"/>
       <c r="B12" s="26" t="s">
         <v>50</v>
       </c>
@@ -3813,7 +3810,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="336"/>
+      <c r="A13" s="335"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -3832,7 +3829,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="336"/>
+      <c r="A14" s="335"/>
       <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
@@ -3851,7 +3848,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="336"/>
+      <c r="A15" s="335"/>
       <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
@@ -3870,7 +3867,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="336"/>
+      <c r="A16" s="335"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3883,7 +3880,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="336"/>
+      <c r="A17" s="335"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -3896,7 +3893,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="336"/>
+      <c r="A18" s="335"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3909,7 +3906,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="336"/>
+      <c r="A19" s="335"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -3922,7 +3919,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="336"/>
+      <c r="A20" s="335"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -3935,7 +3932,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="336"/>
+      <c r="A21" s="335"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -3948,7 +3945,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="336"/>
+      <c r="A22" s="335"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -3961,7 +3958,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="336"/>
+      <c r="A23" s="335"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -3974,7 +3971,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="336"/>
+      <c r="A24" s="335"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -3987,7 +3984,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="336"/>
+      <c r="A25" s="335"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4000,7 +3997,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="336"/>
+      <c r="A26" s="335"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4013,7 +4010,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="336"/>
+      <c r="A27" s="335"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4026,7 +4023,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="336"/>
+      <c r="A28" s="335"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4039,7 +4036,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="336"/>
+      <c r="A29" s="335"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4052,7 +4049,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="336"/>
+      <c r="A30" s="335"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4065,7 +4062,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="336"/>
+      <c r="A31" s="335"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4078,7 +4075,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="336"/>
+      <c r="A32" s="335"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4091,7 +4088,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="336"/>
+      <c r="A33" s="335"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4104,7 +4101,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="336"/>
+      <c r="A34" s="335"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4117,7 +4114,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="336"/>
+      <c r="A35" s="335"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4130,7 +4127,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="336"/>
+      <c r="A36" s="335"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4143,7 +4140,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="336"/>
+      <c r="A37" s="335"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4156,7 +4153,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="336"/>
+      <c r="A38" s="335"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4169,7 +4166,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="336"/>
+      <c r="A39" s="335"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4182,7 +4179,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="336"/>
+      <c r="A40" s="335"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4195,7 +4192,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="336"/>
+      <c r="A41" s="335"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4208,7 +4205,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="336"/>
+      <c r="A42" s="335"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4221,7 +4218,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="336"/>
+      <c r="A43" s="335"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4234,7 +4231,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="336"/>
+      <c r="A44" s="335"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4247,7 +4244,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="336"/>
+      <c r="A45" s="335"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4260,7 +4257,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="336"/>
+      <c r="A46" s="335"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4273,7 +4270,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="336"/>
+      <c r="A47" s="335"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4286,7 +4283,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="336"/>
+      <c r="A48" s="335"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4299,7 +4296,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="336"/>
+      <c r="A49" s="335"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4312,7 +4309,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="336"/>
+      <c r="A50" s="335"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4325,7 +4322,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="336"/>
+      <c r="A51" s="335"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4338,7 +4335,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="336"/>
+      <c r="A52" s="335"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4351,7 +4348,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="336"/>
+      <c r="A53" s="335"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4364,7 +4361,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="336"/>
+      <c r="A54" s="335"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4377,7 +4374,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="336"/>
+      <c r="A55" s="335"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4389,7 +4386,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="336"/>
+      <c r="A56" s="335"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4401,7 +4398,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="336"/>
+      <c r="A57" s="335"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4413,7 +4410,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="336"/>
+      <c r="A58" s="335"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4425,7 +4422,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="336"/>
+      <c r="A59" s="335"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4437,7 +4434,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="336"/>
+      <c r="A60" s="335"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4449,7 +4446,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="336"/>
+      <c r="A61" s="335"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4461,7 +4458,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="336"/>
+      <c r="A62" s="335"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4473,7 +4470,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="336"/>
+      <c r="A63" s="335"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4485,7 +4482,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="336"/>
+      <c r="A64" s="335"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4497,7 +4494,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="336"/>
+      <c r="A65" s="335"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4509,7 +4506,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="336"/>
+      <c r="A66" s="335"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4521,7 +4518,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="336"/>
+      <c r="A67" s="335"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4533,7 +4530,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="336"/>
+      <c r="A68" s="335"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4545,7 +4542,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="336"/>
+      <c r="A69" s="335"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4557,7 +4554,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="336"/>
+      <c r="A70" s="335"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4569,7 +4566,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="336"/>
+      <c r="A71" s="335"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4581,7 +4578,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="336"/>
+      <c r="A72" s="335"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4593,7 +4590,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="336"/>
+      <c r="A73" s="335"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4605,7 +4602,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="336"/>
+      <c r="A74" s="335"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4617,7 +4614,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="336"/>
+      <c r="A75" s="335"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4629,7 +4626,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="336"/>
+      <c r="A76" s="335"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4641,7 +4638,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="336"/>
+      <c r="A77" s="335"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4653,7 +4650,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="336"/>
+      <c r="A78" s="335"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4665,7 +4662,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="336"/>
+      <c r="A79" s="335"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4677,7 +4674,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="336"/>
+      <c r="A80" s="335"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4689,7 +4686,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="336"/>
+      <c r="A81" s="335"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4701,7 +4698,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="336"/>
+      <c r="A82" s="335"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4713,7 +4710,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="336"/>
+      <c r="A83" s="335"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4753,7 +4750,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4802,7 +4799,7 @@
       </c>
       <c r="F3" s="264">
         <f>C101</f>
-        <v>26500</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4980,14 +4977,24 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="309"/>
-      <c r="B22" s="262"/>
+      <c r="A22" s="309" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="262">
+        <v>0</v>
+      </c>
       <c r="C22" s="262"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="262"/>
-      <c r="B23" s="262"/>
-      <c r="C23" s="262"/>
+      <c r="A23" s="262" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="262" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="262">
+        <v>1000</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="262"/>
@@ -5379,7 +5386,7 @@
       <c r="B101" s="262"/>
       <c r="C101" s="262">
         <f>SUM(C2:C100)</f>
-        <v>26500</v>
+        <v>27500</v>
       </c>
     </row>
   </sheetData>
@@ -5395,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5413,33 +5420,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="335"/>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
+      <c r="A1" s="334"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="336"/>
-      <c r="B2" s="333" t="s">
+      <c r="A2" s="335"/>
+      <c r="B2" s="332" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="336"/>
-      <c r="B3" s="334" t="s">
+      <c r="A3" s="335"/>
+      <c r="B3" s="333" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
+      <c r="C3" s="333"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="333"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="336"/>
+      <c r="A4" s="335"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5457,7 +5464,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="336"/>
+      <c r="A5" s="335"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5475,7 +5482,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="336"/>
+      <c r="A6" s="335"/>
       <c r="B6" s="26"/>
       <c r="C6" s="246"/>
       <c r="D6" s="246"/>
@@ -5487,7 +5494,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="336"/>
+      <c r="A7" s="335"/>
       <c r="B7" s="26" t="s">
         <v>136</v>
       </c>
@@ -5505,7 +5512,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="336"/>
+      <c r="A8" s="335"/>
       <c r="B8" s="26" t="s">
         <v>146</v>
       </c>
@@ -5525,7 +5532,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="336"/>
+      <c r="A9" s="335"/>
       <c r="B9" s="26" t="s">
         <v>152</v>
       </c>
@@ -5543,7 +5550,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="336"/>
+      <c r="A10" s="335"/>
       <c r="B10" s="26"/>
       <c r="C10" s="248"/>
       <c r="D10" s="248"/>
@@ -5555,7 +5562,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="336"/>
+      <c r="A11" s="335"/>
       <c r="B11" s="26" t="s">
         <v>156</v>
       </c>
@@ -5573,7 +5580,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="336"/>
+      <c r="A12" s="335"/>
       <c r="B12" s="26" t="s">
         <v>158</v>
       </c>
@@ -5593,7 +5600,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="336"/>
+      <c r="A13" s="335"/>
       <c r="B13" s="26" t="s">
         <v>161</v>
       </c>
@@ -5613,7 +5620,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="336"/>
+      <c r="A14" s="335"/>
       <c r="B14" s="26" t="s">
         <v>166</v>
       </c>
@@ -5631,7 +5638,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="336"/>
+      <c r="A15" s="335"/>
       <c r="B15" s="26" t="s">
         <v>170</v>
       </c>
@@ -5649,7 +5656,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="336"/>
+      <c r="A16" s="335"/>
       <c r="B16" s="26" t="s">
         <v>173</v>
       </c>
@@ -5667,7 +5674,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="336"/>
+      <c r="A17" s="335"/>
       <c r="B17" s="26" t="s">
         <v>184</v>
       </c>
@@ -5685,9 +5692,9 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="336"/>
+      <c r="A18" s="335"/>
       <c r="B18" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18" s="246">
         <v>3300000</v>
@@ -5703,7 +5710,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="336"/>
+      <c r="A19" s="335"/>
       <c r="B19" s="26"/>
       <c r="C19" s="246"/>
       <c r="D19" s="248"/>
@@ -5715,7 +5722,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="336"/>
+      <c r="A20" s="335"/>
       <c r="B20" s="26"/>
       <c r="C20" s="246"/>
       <c r="D20" s="246"/>
@@ -5727,7 +5734,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="336"/>
+      <c r="A21" s="335"/>
       <c r="B21" s="26"/>
       <c r="C21" s="246"/>
       <c r="D21" s="246"/>
@@ -5739,7 +5746,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="336"/>
+      <c r="A22" s="335"/>
       <c r="B22" s="26"/>
       <c r="C22" s="246"/>
       <c r="D22" s="246"/>
@@ -5751,7 +5758,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="336"/>
+      <c r="A23" s="335"/>
       <c r="B23" s="26"/>
       <c r="C23" s="246"/>
       <c r="D23" s="246"/>
@@ -5763,7 +5770,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="336"/>
+      <c r="A24" s="335"/>
       <c r="B24" s="26"/>
       <c r="C24" s="246"/>
       <c r="D24" s="246"/>
@@ -5775,7 +5782,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="336"/>
+      <c r="A25" s="335"/>
       <c r="B25" s="26"/>
       <c r="C25" s="246"/>
       <c r="D25" s="246"/>
@@ -5787,7 +5794,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="336"/>
+      <c r="A26" s="335"/>
       <c r="B26" s="26"/>
       <c r="C26" s="246"/>
       <c r="D26" s="246"/>
@@ -5799,7 +5806,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="336"/>
+      <c r="A27" s="335"/>
       <c r="B27" s="26"/>
       <c r="C27" s="246"/>
       <c r="D27" s="246"/>
@@ -5811,7 +5818,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="336"/>
+      <c r="A28" s="335"/>
       <c r="B28" s="26"/>
       <c r="C28" s="246"/>
       <c r="D28" s="246"/>
@@ -5823,7 +5830,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="336"/>
+      <c r="A29" s="335"/>
       <c r="B29" s="26"/>
       <c r="C29" s="246"/>
       <c r="D29" s="246"/>
@@ -5835,7 +5842,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="336"/>
+      <c r="A30" s="335"/>
       <c r="B30" s="26"/>
       <c r="C30" s="246"/>
       <c r="D30" s="246"/>
@@ -5847,7 +5854,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="336"/>
+      <c r="A31" s="335"/>
       <c r="B31" s="26"/>
       <c r="C31" s="246"/>
       <c r="D31" s="246"/>
@@ -5859,7 +5866,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="336"/>
+      <c r="A32" s="335"/>
       <c r="B32" s="26"/>
       <c r="C32" s="246"/>
       <c r="D32" s="246"/>
@@ -5871,7 +5878,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="336"/>
+      <c r="A33" s="335"/>
       <c r="B33" s="26"/>
       <c r="C33" s="246"/>
       <c r="D33" s="248"/>
@@ -5883,7 +5890,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="336"/>
+      <c r="A34" s="335"/>
       <c r="B34" s="26"/>
       <c r="C34" s="246"/>
       <c r="D34" s="246"/>
@@ -5895,7 +5902,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="336"/>
+      <c r="A35" s="335"/>
       <c r="B35" s="26"/>
       <c r="C35" s="246"/>
       <c r="D35" s="246"/>
@@ -5907,7 +5914,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="336"/>
+      <c r="A36" s="335"/>
       <c r="B36" s="26"/>
       <c r="C36" s="246"/>
       <c r="D36" s="246"/>
@@ -5919,7 +5926,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="336"/>
+      <c r="A37" s="335"/>
       <c r="B37" s="26"/>
       <c r="C37" s="246"/>
       <c r="D37" s="246"/>
@@ -5931,7 +5938,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="336"/>
+      <c r="A38" s="335"/>
       <c r="B38" s="26"/>
       <c r="C38" s="246"/>
       <c r="D38" s="246"/>
@@ -5943,7 +5950,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="336"/>
+      <c r="A39" s="335"/>
       <c r="B39" s="26"/>
       <c r="C39" s="246"/>
       <c r="D39" s="246"/>
@@ -5955,7 +5962,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="336"/>
+      <c r="A40" s="335"/>
       <c r="B40" s="26"/>
       <c r="C40" s="246"/>
       <c r="D40" s="246"/>
@@ -5967,7 +5974,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="336"/>
+      <c r="A41" s="335"/>
       <c r="B41" s="26"/>
       <c r="C41" s="246"/>
       <c r="D41" s="246"/>
@@ -5979,7 +5986,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="336"/>
+      <c r="A42" s="335"/>
       <c r="B42" s="26"/>
       <c r="C42" s="246"/>
       <c r="D42" s="246"/>
@@ -5991,7 +5998,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="336"/>
+      <c r="A43" s="335"/>
       <c r="B43" s="26"/>
       <c r="C43" s="246"/>
       <c r="D43" s="246"/>
@@ -6003,7 +6010,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="336"/>
+      <c r="A44" s="335"/>
       <c r="B44" s="26"/>
       <c r="C44" s="246"/>
       <c r="D44" s="246"/>
@@ -6015,7 +6022,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="336"/>
+      <c r="A45" s="335"/>
       <c r="B45" s="26"/>
       <c r="C45" s="246"/>
       <c r="D45" s="246"/>
@@ -6027,7 +6034,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="336"/>
+      <c r="A46" s="335"/>
       <c r="B46" s="26"/>
       <c r="C46" s="246"/>
       <c r="D46" s="246"/>
@@ -6039,7 +6046,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="336"/>
+      <c r="A47" s="335"/>
       <c r="B47" s="26"/>
       <c r="C47" s="246"/>
       <c r="D47" s="246"/>
@@ -6051,7 +6058,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="336"/>
+      <c r="A48" s="335"/>
       <c r="B48" s="26"/>
       <c r="C48" s="246"/>
       <c r="D48" s="246"/>
@@ -6063,7 +6070,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="336"/>
+      <c r="A49" s="335"/>
       <c r="B49" s="26"/>
       <c r="C49" s="246"/>
       <c r="D49" s="246"/>
@@ -6075,7 +6082,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="336"/>
+      <c r="A50" s="335"/>
       <c r="B50" s="26"/>
       <c r="C50" s="246"/>
       <c r="D50" s="246"/>
@@ -6087,7 +6094,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="336"/>
+      <c r="A51" s="335"/>
       <c r="B51" s="26"/>
       <c r="C51" s="246"/>
       <c r="D51" s="246"/>
@@ -6099,7 +6106,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="336"/>
+      <c r="A52" s="335"/>
       <c r="B52" s="26"/>
       <c r="C52" s="246"/>
       <c r="D52" s="246"/>
@@ -6111,7 +6118,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="336"/>
+      <c r="A53" s="335"/>
       <c r="B53" s="26"/>
       <c r="C53" s="246"/>
       <c r="D53" s="246"/>
@@ -6123,7 +6130,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="336"/>
+      <c r="A54" s="335"/>
       <c r="B54" s="26"/>
       <c r="C54" s="246"/>
       <c r="D54" s="246"/>
@@ -6135,7 +6142,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="336"/>
+      <c r="A55" s="335"/>
       <c r="B55" s="26"/>
       <c r="C55" s="246"/>
       <c r="D55" s="246"/>
@@ -6146,7 +6153,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="336"/>
+      <c r="A56" s="335"/>
       <c r="B56" s="26"/>
       <c r="C56" s="246"/>
       <c r="D56" s="246"/>
@@ -6157,7 +6164,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="336"/>
+      <c r="A57" s="335"/>
       <c r="B57" s="26"/>
       <c r="C57" s="246"/>
       <c r="D57" s="246"/>
@@ -6168,7 +6175,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="336"/>
+      <c r="A58" s="335"/>
       <c r="B58" s="26"/>
       <c r="C58" s="246"/>
       <c r="D58" s="246"/>
@@ -6179,7 +6186,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="336"/>
+      <c r="A59" s="335"/>
       <c r="B59" s="26"/>
       <c r="C59" s="246"/>
       <c r="D59" s="246"/>
@@ -6190,7 +6197,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="336"/>
+      <c r="A60" s="335"/>
       <c r="B60" s="26"/>
       <c r="C60" s="246"/>
       <c r="D60" s="246"/>
@@ -6201,7 +6208,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="336"/>
+      <c r="A61" s="335"/>
       <c r="B61" s="26"/>
       <c r="C61" s="246"/>
       <c r="D61" s="246"/>
@@ -6212,7 +6219,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="336"/>
+      <c r="A62" s="335"/>
       <c r="B62" s="26"/>
       <c r="C62" s="246"/>
       <c r="D62" s="246"/>
@@ -6223,7 +6230,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="336"/>
+      <c r="A63" s="335"/>
       <c r="B63" s="26"/>
       <c r="C63" s="246"/>
       <c r="D63" s="246"/>
@@ -6234,7 +6241,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="336"/>
+      <c r="A64" s="335"/>
       <c r="B64" s="26"/>
       <c r="C64" s="246"/>
       <c r="D64" s="246"/>
@@ -6245,7 +6252,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="336"/>
+      <c r="A65" s="335"/>
       <c r="B65" s="26"/>
       <c r="C65" s="246"/>
       <c r="D65" s="246"/>
@@ -6256,7 +6263,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="336"/>
+      <c r="A66" s="335"/>
       <c r="B66" s="26"/>
       <c r="C66" s="246"/>
       <c r="D66" s="246"/>
@@ -6267,7 +6274,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="336"/>
+      <c r="A67" s="335"/>
       <c r="B67" s="26"/>
       <c r="C67" s="246"/>
       <c r="D67" s="246"/>
@@ -6278,7 +6285,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="336"/>
+      <c r="A68" s="335"/>
       <c r="B68" s="26"/>
       <c r="C68" s="246"/>
       <c r="D68" s="246"/>
@@ -6289,7 +6296,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="336"/>
+      <c r="A69" s="335"/>
       <c r="B69" s="26"/>
       <c r="C69" s="246"/>
       <c r="D69" s="246"/>
@@ -6300,7 +6307,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="336"/>
+      <c r="A70" s="335"/>
       <c r="B70" s="26"/>
       <c r="C70" s="246"/>
       <c r="D70" s="246"/>
@@ -6311,7 +6318,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="336"/>
+      <c r="A71" s="335"/>
       <c r="B71" s="26"/>
       <c r="C71" s="246"/>
       <c r="D71" s="246"/>
@@ -6322,7 +6329,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="336"/>
+      <c r="A72" s="335"/>
       <c r="B72" s="26"/>
       <c r="C72" s="246"/>
       <c r="D72" s="246"/>
@@ -6333,7 +6340,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="336"/>
+      <c r="A73" s="335"/>
       <c r="B73" s="26"/>
       <c r="C73" s="246"/>
       <c r="D73" s="246"/>
@@ -6344,7 +6351,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="336"/>
+      <c r="A74" s="335"/>
       <c r="B74" s="26"/>
       <c r="C74" s="246"/>
       <c r="D74" s="246"/>
@@ -6355,7 +6362,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="336"/>
+      <c r="A75" s="335"/>
       <c r="B75" s="26"/>
       <c r="C75" s="246"/>
       <c r="D75" s="246"/>
@@ -6366,7 +6373,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="336"/>
+      <c r="A76" s="335"/>
       <c r="B76" s="26"/>
       <c r="C76" s="246"/>
       <c r="D76" s="246"/>
@@ -6377,7 +6384,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="336"/>
+      <c r="A77" s="335"/>
       <c r="B77" s="26"/>
       <c r="C77" s="246"/>
       <c r="D77" s="246"/>
@@ -6388,7 +6395,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="336"/>
+      <c r="A78" s="335"/>
       <c r="B78" s="26"/>
       <c r="C78" s="246"/>
       <c r="D78" s="246"/>
@@ -6399,7 +6406,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="336"/>
+      <c r="A79" s="335"/>
       <c r="B79" s="26"/>
       <c r="C79" s="246"/>
       <c r="D79" s="246"/>
@@ -6411,7 +6418,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="336"/>
+      <c r="A80" s="335"/>
       <c r="B80" s="26"/>
       <c r="C80" s="246"/>
       <c r="D80" s="246"/>
@@ -6423,7 +6430,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="336"/>
+      <c r="A81" s="335"/>
       <c r="B81" s="26"/>
       <c r="C81" s="246"/>
       <c r="D81" s="246"/>
@@ -6435,7 +6442,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="336"/>
+      <c r="A82" s="335"/>
       <c r="B82" s="26"/>
       <c r="C82" s="246"/>
       <c r="D82" s="246"/>
@@ -6447,7 +6454,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="336"/>
+      <c r="A83" s="335"/>
       <c r="B83" s="31"/>
       <c r="C83" s="247">
         <f>SUM(C5:C72)</f>
@@ -6483,8 +6490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -6503,67 +6510,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="340" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="341"/>
-      <c r="P1" s="341"/>
-      <c r="Q1" s="341"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="340"/>
+      <c r="P1" s="340"/>
+      <c r="Q1" s="340"/>
     </row>
     <row r="2" spans="1:24" s="64" customFormat="1" ht="18">
-      <c r="A2" s="342" t="s">
+      <c r="A2" s="341" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="342"/>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="342"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342"/>
-      <c r="I2" s="342"/>
-      <c r="J2" s="342"/>
-      <c r="K2" s="342"/>
-      <c r="L2" s="342"/>
-      <c r="M2" s="342"/>
-      <c r="N2" s="342"/>
-      <c r="O2" s="342"/>
-      <c r="P2" s="342"/>
-      <c r="Q2" s="342"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341"/>
+      <c r="O2" s="341"/>
+      <c r="P2" s="341"/>
+      <c r="Q2" s="341"/>
     </row>
     <row r="3" spans="1:24" s="65" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="343" t="s">
+      <c r="A3" s="342" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="344"/>
-      <c r="E3" s="344"/>
-      <c r="F3" s="344"/>
-      <c r="G3" s="344"/>
-      <c r="H3" s="344"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="344"/>
-      <c r="K3" s="344"/>
-      <c r="L3" s="344"/>
-      <c r="M3" s="344"/>
-      <c r="N3" s="344"/>
-      <c r="O3" s="344"/>
-      <c r="P3" s="344"/>
-      <c r="Q3" s="345"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
+      <c r="H3" s="343"/>
+      <c r="I3" s="343"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="343"/>
+      <c r="L3" s="343"/>
+      <c r="M3" s="343"/>
+      <c r="N3" s="343"/>
+      <c r="O3" s="343"/>
+      <c r="P3" s="343"/>
+      <c r="Q3" s="344"/>
       <c r="S3" s="49"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6572,52 +6579,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="66" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="346" t="s">
+      <c r="A4" s="345" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="348" t="s">
+      <c r="B4" s="347" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="337" t="s">
+      <c r="C4" s="336" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="337" t="s">
+      <c r="D4" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="337" t="s">
+      <c r="E4" s="336" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="337" t="s">
+      <c r="F4" s="336" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="337" t="s">
+      <c r="G4" s="336" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="337" t="s">
+      <c r="H4" s="336" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="337" t="s">
+      <c r="I4" s="336" t="s">
         <v>165</v>
       </c>
-      <c r="J4" s="337" t="s">
+      <c r="J4" s="336" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="337" t="s">
+      <c r="K4" s="336" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="337" t="s">
+      <c r="L4" s="336" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="337" t="s">
+      <c r="M4" s="336" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="337" t="s">
+      <c r="N4" s="336" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="339" t="s">
+      <c r="O4" s="338" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="350" t="s">
+      <c r="P4" s="349" t="s">
         <v>171</v>
       </c>
       <c r="Q4" s="123" t="s">
@@ -6630,22 +6637,22 @@
       <c r="W4" s="68"/>
     </row>
     <row r="5" spans="1:24" s="66" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="347"/>
-      <c r="B5" s="349"/>
-      <c r="C5" s="338"/>
-      <c r="D5" s="338"/>
-      <c r="E5" s="338"/>
-      <c r="F5" s="338"/>
-      <c r="G5" s="338"/>
-      <c r="H5" s="338"/>
-      <c r="I5" s="338"/>
-      <c r="J5" s="338"/>
-      <c r="K5" s="338"/>
-      <c r="L5" s="338"/>
-      <c r="M5" s="338"/>
-      <c r="N5" s="338"/>
-      <c r="O5" s="340"/>
-      <c r="P5" s="351"/>
+      <c r="A5" s="346"/>
+      <c r="B5" s="348"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="337"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="337"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="337"/>
+      <c r="J5" s="337"/>
+      <c r="K5" s="337"/>
+      <c r="L5" s="337"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="337"/>
+      <c r="O5" s="339"/>
+      <c r="P5" s="350"/>
       <c r="Q5" s="124" t="s">
         <v>40</v>
       </c>
@@ -7003,7 +7010,9 @@
       <c r="G15" s="82"/>
       <c r="H15" s="82"/>
       <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
+      <c r="J15" s="82">
+        <v>20</v>
+      </c>
       <c r="K15" s="82"/>
       <c r="L15" s="75"/>
       <c r="M15" s="82"/>
@@ -7012,7 +7021,7 @@
       <c r="P15" s="84"/>
       <c r="Q15" s="78">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="R15" s="79"/>
       <c r="S15" s="6"/>
@@ -7022,7 +7031,9 @@
       <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:24" s="13" customFormat="1">
-      <c r="A16" s="73"/>
+      <c r="A16" s="73" t="s">
+        <v>188</v>
+      </c>
       <c r="B16" s="81"/>
       <c r="C16" s="74"/>
       <c r="D16" s="82"/>
@@ -7031,7 +7042,9 @@
       <c r="G16" s="82"/>
       <c r="H16" s="82"/>
       <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="J16" s="82">
+        <v>20</v>
+      </c>
       <c r="K16" s="82"/>
       <c r="L16" s="82"/>
       <c r="M16" s="82"/>
@@ -7040,7 +7053,7 @@
       <c r="P16" s="84"/>
       <c r="Q16" s="78">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R16" s="79"/>
       <c r="S16" s="6"/>
@@ -7587,7 +7600,7 @@
       </c>
       <c r="J37" s="100">
         <f t="shared" si="1"/>
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="K37" s="100">
         <f t="shared" si="1"/>
@@ -7615,7 +7628,7 @@
       </c>
       <c r="Q37" s="102">
         <f>SUM(Q6:Q36)</f>
-        <v>33355</v>
+        <v>33395</v>
       </c>
       <c r="S37" s="226" t="s">
         <v>43</v>
@@ -9619,6 +9632,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -9632,12 +9651,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9650,8 +9663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9678,15 +9691,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="357" t="s">
+      <c r="A1" s="356" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="357"/>
-      <c r="C1" s="357"/>
-      <c r="D1" s="357"/>
-      <c r="E1" s="357"/>
-      <c r="F1" s="357"/>
-      <c r="G1" s="357"/>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
       <c r="H1" s="59"/>
       <c r="I1" s="140"/>
       <c r="J1" s="140"/>
@@ -9779,15 +9792,15 @@
       <c r="CS1" s="135"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="358" t="s">
+      <c r="A2" s="357" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="358"/>
+      <c r="B2" s="357"/>
+      <c r="C2" s="357"/>
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="357"/>
       <c r="H2" s="59"/>
       <c r="I2" s="140"/>
       <c r="J2" s="140"/>
@@ -9880,15 +9893,15 @@
       <c r="CS2" s="135"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="359" t="s">
+      <c r="A3" s="358" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="359"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="358"/>
       <c r="H3" s="59"/>
       <c r="I3" s="140"/>
       <c r="J3" s="140"/>
@@ -11194,13 +11207,21 @@
       <c r="CS14" s="135"/>
     </row>
     <row r="15" spans="1:97">
-      <c r="A15" s="179"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="48"/>
+      <c r="A15" s="179" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="48">
+        <v>203650</v>
+      </c>
+      <c r="C15" s="51">
+        <v>333350</v>
+      </c>
+      <c r="D15" s="48">
+        <v>20</v>
+      </c>
       <c r="E15" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>333370</v>
       </c>
       <c r="F15" s="228"/>
       <c r="G15" s="239"/>
@@ -13035,23 +13056,23 @@
       </c>
       <c r="B33" s="250">
         <f>SUM(B5:B32)</f>
-        <v>2991630</v>
+        <v>3195280</v>
       </c>
       <c r="C33" s="251">
         <f>SUM(C5:C32)</f>
-        <v>1862195</v>
+        <v>2195545</v>
       </c>
       <c r="D33" s="250">
         <f>SUM(D5:D32)</f>
-        <v>32255</v>
+        <v>32275</v>
       </c>
       <c r="E33" s="250">
         <f>SUM(E5:E32)</f>
-        <v>1894450</v>
+        <v>2227820</v>
       </c>
       <c r="F33" s="250">
         <f>B33-E33</f>
-        <v>1097180</v>
+        <v>967460</v>
       </c>
       <c r="G33" s="252"/>
       <c r="H33" s="136"/>
@@ -13246,12 +13267,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="130"/>
-      <c r="B35" s="354" t="s">
+      <c r="B35" s="353" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="354"/>
-      <c r="D35" s="354"/>
-      <c r="E35" s="354"/>
+      <c r="C35" s="353"/>
+      <c r="D35" s="353"/>
+      <c r="E35" s="353"/>
       <c r="F35" s="131"/>
       <c r="G35" s="136"/>
       <c r="H35" s="136"/>
@@ -13577,10 +13598,10 @@
         <v>123</v>
       </c>
       <c r="D38" s="205">
-        <v>7140</v>
+        <v>9140</v>
       </c>
       <c r="E38" s="173" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="F38" s="129"/>
       <c r="G38" s="136"/>
@@ -14100,10 +14121,10 @@
       <c r="D43" s="205"/>
       <c r="E43" s="173"/>
       <c r="F43" s="131"/>
-      <c r="G43" s="355"/>
-      <c r="H43" s="355"/>
-      <c r="I43" s="355"/>
-      <c r="J43" s="355"/>
+      <c r="G43" s="354"/>
+      <c r="H43" s="354"/>
+      <c r="I43" s="354"/>
+      <c r="J43" s="354"/>
       <c r="K43" s="59"/>
       <c r="L43" s="140"/>
       <c r="M43" s="59"/>
@@ -15365,10 +15386,10 @@
       </c>
       <c r="C54" s="117"/>
       <c r="D54" s="207">
-        <v>80110</v>
+        <v>75390</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F54" s="129"/>
       <c r="G54" s="135"/>
@@ -15719,10 +15740,10 @@
       </c>
       <c r="C57" s="117"/>
       <c r="D57" s="207">
-        <v>311310</v>
+        <v>291310</v>
       </c>
       <c r="E57" s="176" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F57" s="129"/>
       <c r="G57" s="135"/>
@@ -16309,10 +16330,10 @@
       </c>
       <c r="C62" s="117"/>
       <c r="D62" s="207">
-        <v>202450</v>
+        <v>95450</v>
       </c>
       <c r="E62" s="175" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F62" s="128"/>
       <c r="G62" s="135"/>
@@ -22169,14 +22190,14 @@
       <c r="CS118" s="135"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="352" t="s">
+      <c r="A119" s="351" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="353"/>
-      <c r="C119" s="356"/>
+      <c r="B119" s="352"/>
+      <c r="C119" s="355"/>
       <c r="D119" s="209">
         <f>SUM(D37:D118)</f>
-        <v>3377880</v>
+        <v>3248160</v>
       </c>
       <c r="E119" s="203"/>
       <c r="F119" s="135"/>
@@ -22378,14 +22399,14 @@
       <c r="CS120" s="135"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="352" t="s">
+      <c r="A121" s="351" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="353"/>
-      <c r="C121" s="353"/>
+      <c r="B121" s="352"/>
+      <c r="C121" s="352"/>
       <c r="D121" s="209">
         <f>D119+M121</f>
-        <v>3377880</v>
+        <v>3248160</v>
       </c>
       <c r="E121" s="203"/>
       <c r="F121" s="135"/>
@@ -33616,8 +33637,8 @@
   </sheetPr>
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33633,35 +33654,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="359" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="361"/>
-      <c r="C1" s="361"/>
-      <c r="D1" s="361"/>
-      <c r="E1" s="362"/>
+      <c r="B1" s="360"/>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="361"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="20.25">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="368" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="370"/>
-      <c r="C2" s="370"/>
-      <c r="D2" s="370"/>
-      <c r="E2" s="371"/>
+      <c r="B2" s="369"/>
+      <c r="C2" s="369"/>
+      <c r="D2" s="369"/>
+      <c r="E2" s="370"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="363" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="364"/>
-      <c r="C3" s="364"/>
-      <c r="D3" s="364"/>
-      <c r="E3" s="365"/>
+      <c r="A3" s="362" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="364"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33676,13 +33697,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="372" t="s">
+      <c r="A4" s="371" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="373"/>
-      <c r="C4" s="373"/>
-      <c r="D4" s="373"/>
-      <c r="E4" s="374"/>
+      <c r="B4" s="372"/>
+      <c r="C4" s="372"/>
+      <c r="D4" s="372"/>
+      <c r="E4" s="373"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -33708,7 +33729,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="272">
-        <v>9179450</v>
+        <v>8980780</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="258"/>
@@ -33728,7 +33749,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="243">
-        <v>64020</v>
+        <v>69000</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
@@ -33758,7 +33779,7 @@
         <v>71</v>
       </c>
       <c r="E7" s="274">
-        <v>16285</v>
+        <v>344115</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="254"/>
@@ -33816,14 +33837,14 @@
         <v>140</v>
       </c>
       <c r="B10" s="243">
-        <v>33355</v>
+        <v>33395</v>
       </c>
       <c r="C10" s="41"/>
       <c r="D10" s="40" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="274">
-        <v>3377880</v>
+        <v>3248160</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="233"/>
@@ -33871,13 +33892,13 @@
       </c>
       <c r="B12" s="307">
         <f>B6+B7+B8-B10-B11</f>
-        <v>30665</v>
+        <v>35605</v>
       </c>
       <c r="C12" s="41"/>
-      <c r="D12" s="326" t="s">
+      <c r="D12" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="328">
+      <c r="E12" s="274">
         <v>243310</v>
       </c>
       <c r="F12" s="7" t="s">
@@ -33899,11 +33920,11 @@
       <c r="A13" s="273"/>
       <c r="B13" s="243"/>
       <c r="C13" s="41"/>
-      <c r="D13" s="329" t="s">
+      <c r="D13" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="330">
-        <v>22000</v>
+      <c r="E13" s="329">
+        <v>27500</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="235"/>
@@ -33922,7 +33943,7 @@
       <c r="A14" s="273"/>
       <c r="B14" s="243"/>
       <c r="C14" s="41"/>
-      <c r="D14" s="329" t="s">
+      <c r="D14" s="328" t="s">
         <v>160</v>
       </c>
       <c r="E14" s="327">
@@ -33945,10 +33966,10 @@
       <c r="A15" s="273"/>
       <c r="B15" s="243"/>
       <c r="C15" s="41"/>
-      <c r="D15" s="331" t="s">
+      <c r="D15" s="330" t="s">
         <v>185</v>
       </c>
-      <c r="E15" s="332">
+      <c r="E15" s="331">
         <v>92540</v>
       </c>
       <c r="F15" s="5"/>
@@ -33970,7 +33991,7 @@
       </c>
       <c r="B16" s="244">
         <f>B5+B6+B7+B8-B10-B11-B14-B15</f>
-        <v>13030665</v>
+        <v>13035605</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41" t="s">
@@ -33978,7 +33999,7 @@
       </c>
       <c r="E16" s="277">
         <f>E5+E6+E10+E11+E12+E7+E13+E14+E15</f>
-        <v>13030665</v>
+        <v>13035605</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="111">
@@ -34018,13 +34039,13 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A18" s="366" t="s">
+      <c r="A18" s="365" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="367"/>
-      <c r="C18" s="367"/>
-      <c r="D18" s="367"/>
-      <c r="E18" s="368"/>
+      <c r="B18" s="366"/>
+      <c r="C18" s="366"/>
+      <c r="D18" s="366"/>
+      <c r="E18" s="367"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
@@ -34050,7 +34071,7 @@
         <v>86</v>
       </c>
       <c r="E19" s="297">
-        <v>80110</v>
+        <v>75390</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="16"/>
@@ -34128,7 +34149,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="279">
-        <v>311310</v>
+        <v>291310</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -34276,7 +34297,7 @@
         <v>145</v>
       </c>
       <c r="B28" s="317">
-        <v>202450</v>
+        <v>95450</v>
       </c>
       <c r="C28" s="318"/>
       <c r="D28" s="319" t="s">
